--- a/Tarea/DataTarea_Exogenas_base.xlsx
+++ b/Tarea/DataTarea_Exogenas_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2663\Documents\GitHub\CUECOPolMon\Tarea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CUECOPolMon\Tarea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1434F39-3D2C-4A78-B526-7537B7DEA393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD1FDD-A8E1-4D6C-9485-A534227F4333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA418475-98CD-40C4-9F54-B699117667D7}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{AA418475-98CD-40C4-9F54-B699117667D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -534,12 +534,12 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45747</v>
       </c>
@@ -601,7 +601,7 @@
         <v>2.2079178189177071</v>
       </c>
       <c r="C3" s="7">
-        <v>-0.30513363517802289</v>
+        <v>-0.105133635178023</v>
       </c>
       <c r="D3" s="7">
         <v>2.987567660193188</v>
@@ -613,16 +613,16 @@
         <v>-0.12631907029203901</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="7">
         <v>1.384126466184451</v>
       </c>
       <c r="I3" s="9">
-        <v>0.66384956126651085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45838</v>
       </c>
@@ -630,7 +630,7 @@
         <v>1.9757863828806661</v>
       </c>
       <c r="C4" s="7">
-        <v>-0.17154856357227169</v>
+        <v>-7.1548563572272003E-2</v>
       </c>
       <c r="D4" s="7">
         <v>1.998146564230074</v>
@@ -642,16 +642,16 @@
         <v>-5.0679211001166097E-2</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="7">
         <v>1.5930540365912851</v>
       </c>
       <c r="I4" s="9">
-        <v>0.87667017433157601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45930</v>
       </c>
@@ -659,10 +659,10 @@
         <v>1.781166667338816</v>
       </c>
       <c r="C5" s="7">
-        <v>-8.8264805610846986E-2</v>
+        <v>-4.8264805610846999E-2</v>
       </c>
       <c r="D5" s="7">
-        <v>2.0005524745618741</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7">
         <v>-4.5869326516697027E-2</v>
@@ -671,16 +671,16 @@
         <v>-2.0332499453667861E-2</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="7">
         <v>1.6468334275879011</v>
       </c>
       <c r="I5" s="9">
-        <v>1.0455613233791039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>46022</v>
       </c>
@@ -688,10 +688,10 @@
         <v>1.6404176706355009</v>
       </c>
       <c r="C6" s="7">
-        <v>-4.1798217736525048E-2</v>
+        <v>-3.1798217736524997E-2</v>
       </c>
       <c r="D6" s="7">
-        <v>2.034654816605586</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7">
         <v>-1.7994536792500251E-2</v>
@@ -700,16 +700,16 @@
         <v>-8.1573987808115558E-3</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="7">
         <v>1.664769343392815</v>
       </c>
       <c r="I6" s="9">
-        <v>1.174829384708675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>46112</v>
       </c>
@@ -720,7 +720,7 @@
         <v>-2.0405485082324409E-2</v>
       </c>
       <c r="D7" s="7">
-        <v>2.0588353026717501</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7">
         <v>-7.0592567836978487E-3</v>
@@ -729,16 +729,16 @@
         <v>-3.2727483908615998E-3</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="7">
         <v>1.672242801530579</v>
       </c>
       <c r="I7" s="9">
-        <v>1.270894955175071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>46203</v>
       </c>
@@ -749,7 +749,7 @@
         <v>-1.5010570655856009E-2</v>
       </c>
       <c r="D8" s="7">
-        <v>2.084969551106191</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7">
         <v>-2.769346436244666E-3</v>
@@ -758,16 +758,16 @@
         <v>-1.3130266544136751E-3</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="7">
         <v>1.6756188688010101</v>
       </c>
       <c r="I8" s="9">
-        <v>1.340408717430285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>46295</v>
       </c>
@@ -775,10 +775,10 @@
         <v>1.4577046178661319</v>
       </c>
       <c r="C9" s="7">
-        <v>-1.9014863791458721E-2</v>
+        <v>-1.50148637914587E-2</v>
       </c>
       <c r="D9" s="7">
-        <v>2.103785520902214</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
         <v>-1.086414606938783E-3</v>
@@ -787,16 +787,16 @@
         <v>-5.267862937507671E-4</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="7">
         <v>1.6771042002492009</v>
       </c>
       <c r="I9" s="9">
-        <v>1.3894703557769941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>46387</v>
       </c>
@@ -804,10 +804,10 @@
         <v>1.4446280052340581</v>
       </c>
       <c r="C10" s="7">
-        <v>-2.7854005609061039E-2</v>
+        <v>-1.5854005609061E-2</v>
       </c>
       <c r="D10" s="7">
-        <v>2.1122113640225701</v>
+        <v>2</v>
       </c>
       <c r="E10" s="7">
         <v>-4.2620045030208458E-4</v>
@@ -816,7 +816,7 @@
         <v>-2.1134666105280801E-4</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="7">
         <v>1.6777659436680299</v>
@@ -839,9 +839,9 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -849,22 +849,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>45717</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>45809</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>45901</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45992</v>
       </c>
